--- a/predictions полгода до/Прогнозы_Holt-Winters_MulMul.xlsx
+++ b/predictions полгода до/Прогнозы_Holt-Winters_MulMul.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18416249.78276944</v>
+        <v>20457730.73111157</v>
       </c>
       <c r="C2" t="n">
-        <v>20236938.46153313</v>
+        <v>20190851.20713125</v>
       </c>
       <c r="D2" t="n">
-        <v>19897591.66143176</v>
+        <v>20615023.05562776</v>
       </c>
       <c r="E2" t="n">
-        <v>20238948.65764118</v>
+        <v>22277731.06613512</v>
       </c>
       <c r="F2" t="n">
-        <v>21788863.82352125</v>
+        <v>23796835.73710218</v>
       </c>
       <c r="G2" t="n">
-        <v>23186799.08014005</v>
+        <v>16789469.73775127</v>
       </c>
       <c r="H2" t="n">
-        <v>15161243.7932546</v>
+        <v>21148165.05050935</v>
       </c>
       <c r="I2" t="n">
-        <v>20450534.85835763</v>
+        <v>24713158.02141447</v>
       </c>
       <c r="J2" t="n">
-        <v>23807850.2495329</v>
+        <v>23147304.50210552</v>
       </c>
       <c r="K2" t="n">
-        <v>22215245.8770523</v>
+        <v>22961154.95686229</v>
       </c>
       <c r="L2" t="n">
-        <v>21953447.1800221</v>
+        <v>21841215.80071292</v>
       </c>
       <c r="M2" t="n">
-        <v>20803657.74210148</v>
+        <v>21452844.40037522</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.095467552962307e+21</v>
+        <v>2.874314009901064e+22</v>
       </c>
       <c r="C3" t="n">
-        <v>6.28725692701033e+22</v>
+        <v>1.095008162172236e+30</v>
       </c>
       <c r="D3" t="n">
-        <v>2.426957708251107e+30</v>
+        <v>5.072894084395815e+25</v>
       </c>
       <c r="E3" t="n">
-        <v>1.115501024212338e+26</v>
+        <v>2.859849849236386e+27</v>
       </c>
       <c r="F3" t="n">
-        <v>6.354582552018905e+27</v>
+        <v>1.773641032619181e+29</v>
       </c>
       <c r="G3" t="n">
-        <v>3.990715286567598e+29</v>
+        <v>1.064549763466032e+31</v>
       </c>
       <c r="H3" t="n">
-        <v>2.464945929015813e+31</v>
+        <v>6.352937461262965e+32</v>
       </c>
       <c r="I3" t="n">
-        <v>1.503167030884522e+33</v>
+        <v>3.635254895521188e+34</v>
       </c>
       <c r="J3" t="n">
-        <v>8.74290464780193e+34</v>
+        <v>2.013912482409452e+36</v>
       </c>
       <c r="K3" t="n">
-        <v>4.901983224666945e+36</v>
+        <v>1.100613303607264e+38</v>
       </c>
       <c r="L3" t="n">
-        <v>2.703950841709792e+38</v>
+        <v>6.030848912280649e+39</v>
       </c>
       <c r="M3" t="n">
-        <v>3.216442505402754e+40</v>
+        <v>7.187658606781919e+41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118804693.8138559</v>
+        <v>63860338.46568539</v>
       </c>
       <c r="C4" t="n">
-        <v>602128532.4257973</v>
+        <v>4041642616.636754</v>
       </c>
       <c r="D4" t="n">
-        <v>42751583877.62022</v>
+        <v>131709744305.6979</v>
       </c>
       <c r="E4" t="n">
-        <v>1471324472116.855</v>
+        <v>3358337543585.378</v>
       </c>
       <c r="F4" t="n">
-        <v>40010871360421.42</v>
+        <v>96874266488401.09</v>
       </c>
       <c r="G4" t="n">
-        <v>1268824991483816</v>
+        <v>1586990974626982</v>
       </c>
       <c r="H4" t="n">
-        <v>2.204274315407219e+16</v>
+        <v>1.196490501517383e+18</v>
       </c>
       <c r="I4" t="n">
-        <v>1.810594715626831e+19</v>
+        <v>7.599217622679267e+17</v>
       </c>
       <c r="J4" t="n">
-        <v>1.110964664814938e+19</v>
+        <v>3.198825178687207e+19</v>
       </c>
       <c r="K4" t="n">
-        <v>4.935626924455231e+20</v>
+        <v>6.038741094831784e+20</v>
       </c>
       <c r="L4" t="n">
-        <v>9.833835530406951e+21</v>
+        <v>1.246092752557827e+22</v>
       </c>
       <c r="M4" t="n">
-        <v>2.141850931803236e+23</v>
+        <v>2.558620116857129e+23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59955157.79025286</v>
+        <v>23164695.31463474</v>
       </c>
       <c r="C5" t="n">
-        <v>1439489246.684854</v>
+        <v>26135717.04426999</v>
       </c>
       <c r="D5" t="n">
-        <v>34561317096.20467</v>
+        <v>26313758.29040459</v>
       </c>
       <c r="E5" t="n">
-        <v>553382864384.1898</v>
+        <v>31586488.25407084</v>
       </c>
       <c r="F5" t="n">
-        <v>13284457548163.14</v>
+        <v>58381402.74289303</v>
       </c>
       <c r="G5" t="n">
-        <v>318946123016198.4</v>
+        <v>7720054.442406026</v>
       </c>
       <c r="H5" t="n">
-        <v>1.14844250623723e+16</v>
+        <v>37133119.12660264</v>
       </c>
       <c r="I5" t="n">
-        <v>2.757345925819115e+17</v>
+        <v>40312222.18433274</v>
       </c>
       <c r="J5" t="n">
-        <v>6.62023238221689e+18</v>
+        <v>36200049.0747567</v>
       </c>
       <c r="K5" t="n">
-        <v>1.278128746523676e+21</v>
+        <v>35268813.00745587</v>
       </c>
       <c r="L5" t="n">
-        <v>3.819633676437737e+21</v>
+        <v>40466799.80330504</v>
       </c>
       <c r="M5" t="n">
-        <v>9.162707077484921e+22</v>
+        <v>40048147.94410075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6035438.836616319</v>
+        <v>2028160.799186238</v>
       </c>
       <c r="C6" t="n">
-        <v>5914751.513161707</v>
+        <v>2874840.00341614</v>
       </c>
       <c r="D6" t="n">
-        <v>6975018.778594359</v>
+        <v>1643041.398400779</v>
       </c>
       <c r="E6" t="n">
-        <v>8321121.022912684</v>
+        <v>3183849.128244635</v>
       </c>
       <c r="F6" t="n">
-        <v>9833197.325997246</v>
+        <v>2039341.511245977</v>
       </c>
       <c r="G6" t="n">
-        <v>29113932.13693858</v>
+        <v>1932233.046285813</v>
       </c>
       <c r="H6" t="n">
-        <v>3332608.35773984</v>
+        <v>3824741.734243411</v>
       </c>
       <c r="I6" t="n">
-        <v>10539492.39618843</v>
+        <v>4365902.379370307</v>
       </c>
       <c r="J6" t="n">
-        <v>7049791.141741961</v>
+        <v>3361423.558288872</v>
       </c>
       <c r="K6" t="n">
-        <v>8216384.906074413</v>
+        <v>3780882.000363512</v>
       </c>
       <c r="L6" t="n">
-        <v>13507497.60216787</v>
+        <v>2592579.742688753</v>
       </c>
       <c r="M6" t="n">
-        <v>11822745.67923607</v>
+        <v>3447243.079222578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1755539.258504279</v>
+        <v>183188508.0895023</v>
       </c>
       <c r="C7" t="n">
-        <v>2078877.34509685</v>
+        <v>3443403901.003416</v>
       </c>
       <c r="D7" t="n">
-        <v>3020710.461240472</v>
+        <v>147416346503.3264</v>
       </c>
       <c r="E7" t="n">
-        <v>2154978.8760875</v>
+        <v>1357136418945.692</v>
       </c>
       <c r="F7" t="n">
-        <v>2775169.242283765</v>
+        <v>54559504947492.59</v>
       </c>
       <c r="G7" t="n">
-        <v>5452761.051793415</v>
+        <v>2.714453106465657e+16</v>
       </c>
       <c r="H7" t="n">
-        <v>791426.9368063327</v>
+        <v>6.894268349988784e+16</v>
       </c>
       <c r="I7" t="n">
-        <v>2785066.292774373</v>
+        <v>2.295443423489928e+18</v>
       </c>
       <c r="J7" t="n">
-        <v>3279415.86250169</v>
+        <v>3.609057833532194e+19</v>
       </c>
       <c r="K7" t="n">
-        <v>4048956.259314174</v>
+        <v>5.39008758973559e+20</v>
       </c>
       <c r="L7" t="n">
-        <v>2148912.928086048</v>
+        <v>1.228342581085375e+22</v>
       </c>
       <c r="M7" t="n">
-        <v>3489036.686480406</v>
+        <v>2.58065338407207e+23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2715131.862871781</v>
+        <v>85055457979.93967</v>
       </c>
       <c r="C8" t="n">
-        <v>2521631.959947155</v>
+        <v>132812504439.3832</v>
       </c>
       <c r="D8" t="n">
-        <v>2540024.802829532</v>
+        <v>15537935.04377722</v>
       </c>
       <c r="E8" t="n">
-        <v>3254508.857243939</v>
+        <v>17361459.28665104</v>
       </c>
       <c r="F8" t="n">
-        <v>5283105.775337811</v>
+        <v>23524324.37654801</v>
       </c>
       <c r="G8" t="n">
-        <v>3203984.643153746</v>
+        <v>69984066514.88582</v>
       </c>
       <c r="H8" t="n">
-        <v>300709.4616207699</v>
+        <v>196693246098.4745</v>
       </c>
       <c r="I8" t="n">
-        <v>2235561.66450956</v>
+        <v>21480201.47013779</v>
       </c>
       <c r="J8" t="n">
-        <v>2621166.433709494</v>
+        <v>19637202536.49315</v>
       </c>
       <c r="K8" t="n">
-        <v>2305178.630380672</v>
+        <v>370802437397.1359</v>
       </c>
       <c r="L8" t="n">
-        <v>1554277.066997005</v>
+        <v>19207254.69615292</v>
       </c>
       <c r="M8" t="n">
-        <v>2822904.958896252</v>
+        <v>19180121.63104593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521959700.8890363</v>
+        <v>30902218.35403249</v>
       </c>
       <c r="C9" t="n">
-        <v>33307151950.51548</v>
+        <v>27556009.61352627</v>
       </c>
       <c r="D9" t="n">
-        <v>3123984907341.76</v>
+        <v>29352541.48574058</v>
       </c>
       <c r="E9" t="n">
-        <v>295849766911814.8</v>
+        <v>31440811.31714386</v>
       </c>
       <c r="F9" t="n">
-        <v>2.802074983460667e+16</v>
+        <v>53513096.32460429</v>
       </c>
       <c r="G9" t="n">
-        <v>2.653926404559012e+18</v>
+        <v>33129064.64492353</v>
       </c>
       <c r="H9" t="n">
-        <v>3.745468121849042e+20</v>
+        <v>42425679.35957092</v>
       </c>
       <c r="I9" t="n">
-        <v>1.682520326015223e+26</v>
+        <v>45688573.08228678</v>
       </c>
       <c r="J9" t="n">
-        <v>3.365764764098782e+24</v>
+        <v>58361447.61282601</v>
       </c>
       <c r="K9" t="n">
-        <v>3.187603104913991e+26</v>
+        <v>62935708.48401784</v>
       </c>
       <c r="L9" t="n">
-        <v>3.019079486415561e+28</v>
+        <v>81703396.60129799</v>
       </c>
       <c r="M9" t="n">
-        <v>2.87366195290044e+30</v>
+        <v>61280377.94482336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4316816.033469514</v>
+        <v>1261352899.579021</v>
       </c>
       <c r="C10" t="n">
-        <v>5698023.505737542</v>
+        <v>70870952556.69896</v>
       </c>
       <c r="D10" t="n">
-        <v>6188551.139050338</v>
+        <v>4310653032539.899</v>
       </c>
       <c r="E10" t="n">
-        <v>4564146.041609939</v>
+        <v>197304733917297.1</v>
       </c>
       <c r="F10" t="n">
-        <v>5637812.273897119</v>
+        <v>1.223197074470986e+16</v>
       </c>
       <c r="G10" t="n">
-        <v>10546755.93858447</v>
+        <v>3.211134600581611e+19</v>
       </c>
       <c r="H10" t="n">
-        <v>1797184.259864999</v>
+        <v>6.299849476900294e+19</v>
       </c>
       <c r="I10" t="n">
-        <v>5645496.97173952</v>
+        <v>4.261358104584272e+21</v>
       </c>
       <c r="J10" t="n">
-        <v>9375914.829272266</v>
+        <v>2.237204838325925e+23</v>
       </c>
       <c r="K10" t="n">
-        <v>6333864.347786034</v>
+        <v>8.979539048063548e+24</v>
       </c>
       <c r="L10" t="n">
-        <v>6564393.494592968</v>
+        <v>5.487369857708967e+26</v>
       </c>
       <c r="M10" t="n">
-        <v>6587721.372996964</v>
+        <v>2.017026102486084e+28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9703011173845.393</v>
+        <v>273157197.0769721</v>
       </c>
       <c r="C11" t="n">
-        <v>177822538186874.2</v>
+        <v>5149153594.978459</v>
       </c>
       <c r="D11" t="n">
-        <v>159459293120677.5</v>
+        <v>94128727249.83391</v>
       </c>
       <c r="E11" t="n">
-        <v>177490007273590.7</v>
+        <v>32802166389989.69</v>
       </c>
       <c r="F11" t="n">
-        <v>1297885576602832</v>
+        <v>40436049439004.98</v>
       </c>
       <c r="G11" t="n">
-        <v>1960577082482872</v>
+        <v>235724265329297.4</v>
       </c>
       <c r="H11" t="n">
-        <v>6450040984042410</v>
+        <v>4203422196681126</v>
       </c>
       <c r="I11" t="n">
-        <v>2.06367702601501e+16</v>
+        <v>6.68200333555193e+16</v>
       </c>
       <c r="J11" t="n">
-        <v>6.216973999996694e+16</v>
+        <v>1.118399506243389e+18</v>
       </c>
       <c r="K11" t="n">
-        <v>1.494150241373684e+17</v>
+        <v>1.078415635506694e+19</v>
       </c>
       <c r="L11" t="n">
-        <v>6.062212465079191e+17</v>
+        <v>1.75681487396395e+20</v>
       </c>
       <c r="M11" t="n">
-        <v>1.123754116654159e+18</v>
+        <v>3.459088527420823e+21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>382883.4017699835</v>
+        <v>42300604.42555379</v>
       </c>
       <c r="C12" t="n">
-        <v>317319.5356910027</v>
+        <v>48160523.00940274</v>
       </c>
       <c r="D12" t="n">
-        <v>455132.7638786614</v>
+        <v>51618560.47472215</v>
       </c>
       <c r="E12" t="n">
-        <v>487469.0709981127</v>
+        <v>50765683.2941504</v>
       </c>
       <c r="F12" t="n">
-        <v>730613.9589579925</v>
+        <v>42181796.55666128</v>
       </c>
       <c r="G12" t="n">
-        <v>822829.9773681833</v>
+        <v>40563519.35434431</v>
       </c>
       <c r="H12" t="n">
-        <v>818200.3194412225</v>
+        <v>49015762.49312007</v>
       </c>
       <c r="I12" t="n">
-        <v>1682495.121541464</v>
+        <v>43725844.18555629</v>
       </c>
       <c r="J12" t="n">
-        <v>2603471.686441852</v>
+        <v>42684886.81424613</v>
       </c>
       <c r="K12" t="n">
-        <v>2432016.602557144</v>
+        <v>37822495.19622819</v>
       </c>
       <c r="L12" t="n">
-        <v>2716635.575573028</v>
+        <v>48410155.66117737</v>
       </c>
       <c r="M12" t="n">
-        <v>2145533.122603845</v>
+        <v>59723577.83607248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.680015586633507e+17</v>
+        <v>48645140.67508735</v>
       </c>
       <c r="C13" t="n">
-        <v>4.525077130254788e+17</v>
+        <v>48316275.66301668</v>
       </c>
       <c r="D13" t="n">
-        <v>6.294554139537997e+18</v>
+        <v>51990979.79521883</v>
       </c>
       <c r="E13" t="n">
-        <v>1.659019400799895e+20</v>
+        <v>44848526.80684308</v>
       </c>
       <c r="F13" t="n">
-        <v>1.852527169417628e+21</v>
+        <v>41817510.98104128</v>
       </c>
       <c r="G13" t="n">
-        <v>3.707253550115357e+22</v>
+        <v>39549304.67063365</v>
       </c>
       <c r="H13" t="n">
-        <v>4.58581793948817e+23</v>
+        <v>44009573.32031445</v>
       </c>
       <c r="I13" t="n">
-        <v>8.077853563371267e+24</v>
+        <v>40290827.00692665</v>
       </c>
       <c r="J13" t="n">
-        <v>1.422996562850745e+26</v>
+        <v>42068057.74952944</v>
       </c>
       <c r="K13" t="n">
-        <v>2.506795563473115e+27</v>
+        <v>35662884.21899302</v>
       </c>
       <c r="L13" t="n">
-        <v>4.416080107176007e+28</v>
+        <v>43560403.61783622</v>
       </c>
       <c r="M13" t="n">
-        <v>7.780359257546416e+29</v>
+        <v>53007873.68837137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3034798.764370355</v>
+        <v>6831483.416052699</v>
       </c>
       <c r="C14" t="n">
-        <v>151209963.1813389</v>
+        <v>27026429.14871676</v>
       </c>
       <c r="D14" t="n">
-        <v>13297839104.80351</v>
+        <v>106920824.9553572</v>
       </c>
       <c r="E14" t="n">
-        <v>3186208857547.133</v>
+        <v>422995662.239369</v>
       </c>
       <c r="F14" t="n">
-        <v>108394546127440.6</v>
+        <v>1673437533.015497</v>
       </c>
       <c r="G14" t="n">
-        <v>1.931669822325505e+16</v>
+        <v>6620382379.905161</v>
       </c>
       <c r="H14" t="n">
-        <v>3.345307202859621e+18</v>
+        <v>5933867419315203</v>
       </c>
       <c r="I14" t="n">
-        <v>1.540441184307405e+23</v>
+        <v>8096424495474.375</v>
       </c>
       <c r="J14" t="n">
-        <v>1.620075025458722e+23</v>
+        <v>5365240412286.186</v>
       </c>
       <c r="K14" t="n">
-        <v>1.297225130970642e+25</v>
+        <v>3797177530088.994</v>
       </c>
       <c r="L14" t="n">
-        <v>9.341479625218636e+26</v>
+        <v>13012461085519.29</v>
       </c>
       <c r="M14" t="n">
-        <v>9.85112221766032e+28</v>
+        <v>25383931141491.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12886493.93275396</v>
+        <v>155928992.2560531</v>
       </c>
       <c r="C15" t="n">
-        <v>20914736.43938908</v>
+        <v>2969118243.921025</v>
       </c>
       <c r="D15" t="n">
-        <v>63069965.56392545</v>
+        <v>81292405236.10315</v>
       </c>
       <c r="E15" t="n">
-        <v>209848787.5762912</v>
+        <v>3438932502164.666</v>
       </c>
       <c r="F15" t="n">
-        <v>588791772.2434204</v>
+        <v>74661132694090.48</v>
       </c>
       <c r="G15" t="n">
-        <v>2421139028.741475</v>
+        <v>9.686346009921275e+16</v>
       </c>
       <c r="H15" t="n">
-        <v>4641749875.379928</v>
+        <v>1.052006525639981e+17</v>
       </c>
       <c r="I15" t="n">
-        <v>14097194186.38419</v>
+        <v>2.824255357185037e+18</v>
       </c>
       <c r="J15" t="n">
-        <v>42818656691.51862</v>
+        <v>1.130304356498957e+20</v>
       </c>
       <c r="K15" t="n">
-        <v>130059344789.1728</v>
+        <v>1.983944876676317e+21</v>
       </c>
       <c r="L15" t="n">
-        <v>395046495420.0793</v>
+        <v>4.83010726073444e+22</v>
       </c>
       <c r="M15" t="n">
-        <v>5243327005085.135</v>
+        <v>6.622596473467868e+23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1990808.825395195</v>
+        <v>9089791.55139851</v>
       </c>
       <c r="C16" t="n">
-        <v>1368436.455016182</v>
+        <v>17583998.94250334</v>
       </c>
       <c r="D16" t="n">
-        <v>1424778.248278909</v>
+        <v>16311240.25825213</v>
       </c>
       <c r="E16" t="n">
-        <v>1636959.516618897</v>
+        <v>20028120.52922071</v>
       </c>
       <c r="F16" t="n">
-        <v>1493878.682746894</v>
+        <v>21679172.62252515</v>
       </c>
       <c r="G16" t="n">
-        <v>2337281.398107017</v>
+        <v>19534943.72909025</v>
       </c>
       <c r="H16" t="n">
-        <v>1727132.870412137</v>
+        <v>17608083.15206344</v>
       </c>
       <c r="I16" t="n">
-        <v>1877364.407539107</v>
+        <v>23557739.79791615</v>
       </c>
       <c r="J16" t="n">
-        <v>2040043.508449702</v>
+        <v>24053226.90260745</v>
       </c>
       <c r="K16" t="n">
-        <v>2217197.731776117</v>
+        <v>20641520.30578331</v>
       </c>
       <c r="L16" t="n">
-        <v>2409830.68704664</v>
+        <v>22765349.33949712</v>
       </c>
       <c r="M16" t="n">
-        <v>2955123.644264215</v>
+        <v>22630635.78147003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.69070135071552e+20</v>
+        <v>29399924.25655107</v>
       </c>
       <c r="C17" t="n">
-        <v>2.512264511081829e+20</v>
+        <v>204173283.4014909</v>
       </c>
       <c r="D17" t="n">
-        <v>8.756118055639993e+21</v>
+        <v>1125882231.291963</v>
       </c>
       <c r="E17" t="n">
-        <v>2.561385213728834e+23</v>
+        <v>5032946184.513515</v>
       </c>
       <c r="F17" t="n">
-        <v>9.384979402990034e+24</v>
+        <v>22929897938.65371</v>
       </c>
       <c r="G17" t="n">
-        <v>3.297346135144597e+26</v>
+        <v>87133431748.18394</v>
       </c>
       <c r="H17" t="n">
-        <v>1.061866275883097e+28</v>
+        <v>861348170618.8569</v>
       </c>
       <c r="I17" t="n">
-        <v>3.993540500659846e+29</v>
+        <v>3242081099608.993</v>
       </c>
       <c r="J17" t="n">
-        <v>1.501979372360944e+31</v>
+        <v>17691934085728.57</v>
       </c>
       <c r="K17" t="n">
-        <v>5.649028571951961e+32</v>
+        <v>859743185167589.6</v>
       </c>
       <c r="L17" t="n">
-        <v>2.124636521443128e+34</v>
+        <v>1059761220970250</v>
       </c>
       <c r="M17" t="n">
-        <v>7.991701360521623e+35</v>
+        <v>5211749048655511</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>963073.8233540962</v>
+        <v>3681922.341572248</v>
       </c>
       <c r="C18" t="n">
-        <v>652203.2046851459</v>
+        <v>4192402.588393858</v>
       </c>
       <c r="D18" t="n">
-        <v>1528807.694277555</v>
+        <v>3610209.57710261</v>
       </c>
       <c r="E18" t="n">
-        <v>1134773.656060182</v>
+        <v>3565051.289973978</v>
       </c>
       <c r="F18" t="n">
-        <v>1847601.892437243</v>
+        <v>4950813.220943829</v>
       </c>
       <c r="G18" t="n">
-        <v>5978838.071493939</v>
+        <v>4123714.44920623</v>
       </c>
       <c r="H18" t="n">
-        <v>1202412.933969886</v>
+        <v>6455789.017414995</v>
       </c>
       <c r="I18" t="n">
-        <v>2245088.470571566</v>
+        <v>6843926.765977897</v>
       </c>
       <c r="J18" t="n">
-        <v>3128289.472635639</v>
+        <v>4787785.7756909</v>
       </c>
       <c r="K18" t="n">
-        <v>2772825.989337451</v>
+        <v>6963362.341855178</v>
       </c>
       <c r="L18" t="n">
-        <v>1985329.708406826</v>
+        <v>8889750.582588814</v>
       </c>
       <c r="M18" t="n">
-        <v>3306875.442498918</v>
+        <v>5383630.098318234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24952.06176470456</v>
+        <v>6853684.288808428</v>
       </c>
       <c r="C19" t="n">
-        <v>9810.881643213292</v>
+        <v>4536096.198198112</v>
       </c>
       <c r="D19" t="n">
-        <v>34044.90824325991</v>
+        <v>6447501.927696075</v>
       </c>
       <c r="E19" t="n">
-        <v>17113.81306209509</v>
+        <v>4918113.536104924</v>
       </c>
       <c r="F19" t="n">
-        <v>8788.314457204386</v>
+        <v>6134780.574234364</v>
       </c>
       <c r="G19" t="n">
-        <v>12390.09801781061</v>
+        <v>3102077.46121664</v>
       </c>
       <c r="H19" t="n">
-        <v>7084.047654870354</v>
+        <v>4319439.80763511</v>
       </c>
       <c r="I19" t="n">
-        <v>9521.246241186946</v>
+        <v>5817255.734080604</v>
       </c>
       <c r="J19" t="n">
-        <v>15443.08391607002</v>
+        <v>3697345.04718191</v>
       </c>
       <c r="K19" t="n">
-        <v>5532.041200194196</v>
+        <v>3153720.166574508</v>
       </c>
       <c r="L19" t="n">
-        <v>8046.928579552365</v>
+        <v>4729991.097825537</v>
       </c>
       <c r="M19" t="n">
-        <v>2721.090251335572</v>
+        <v>6173665.883843344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1831091.708615104</v>
+        <v>1841632.42696862</v>
       </c>
       <c r="C20" t="n">
-        <v>1974594.889036997</v>
+        <v>2518198.807766884</v>
       </c>
       <c r="D20" t="n">
-        <v>1962753.273379443</v>
+        <v>2827279.174123983</v>
       </c>
       <c r="E20" t="n">
-        <v>2129832.02111618</v>
+        <v>2991194.420718152</v>
       </c>
       <c r="F20" t="n">
-        <v>2040265.698163295</v>
+        <v>2038082.469029721</v>
       </c>
       <c r="G20" t="n">
-        <v>2386310.709000779</v>
+        <v>2085360.880345024</v>
       </c>
       <c r="H20" t="n">
-        <v>542420.9499844682</v>
+        <v>2841218.733753027</v>
       </c>
       <c r="I20" t="n">
-        <v>1434986.405750533</v>
+        <v>2821502.013654734</v>
       </c>
       <c r="J20" t="n">
-        <v>1857634.274183613</v>
+        <v>1966030.845044245</v>
       </c>
       <c r="K20" t="n">
-        <v>1910861.939943612</v>
+        <v>2269668.0505415</v>
       </c>
       <c r="L20" t="n">
-        <v>1567930.563230388</v>
+        <v>3260785.791473762</v>
       </c>
       <c r="M20" t="n">
-        <v>2145294.637599744</v>
+        <v>2333606.882389382</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1771438.3212426</v>
+        <v>3639385.132464272</v>
       </c>
       <c r="C21" t="n">
-        <v>891697.5819498036</v>
+        <v>3979578.922772806</v>
       </c>
       <c r="D21" t="n">
-        <v>936725.7712740499</v>
+        <v>5954637.673750266</v>
       </c>
       <c r="E21" t="n">
-        <v>2089611.493760874</v>
+        <v>5345185.930662739</v>
       </c>
       <c r="F21" t="n">
-        <v>1114802.563800533</v>
+        <v>5840044.877440543</v>
       </c>
       <c r="G21" t="n">
-        <v>1008855.484816311</v>
+        <v>4517692.646179544</v>
       </c>
       <c r="H21" t="n">
-        <v>1027327.251456166</v>
+        <v>4023861.368715388</v>
       </c>
       <c r="I21" t="n">
-        <v>1528757.336903222</v>
+        <v>3979881.554262014</v>
       </c>
       <c r="J21" t="n">
-        <v>1349581.047230817</v>
+        <v>4273100.888987786</v>
       </c>
       <c r="K21" t="n">
-        <v>2119496.792895875</v>
+        <v>4861962.739896848</v>
       </c>
       <c r="L21" t="n">
-        <v>1417763.458088128</v>
+        <v>5292390.480422719</v>
       </c>
       <c r="M21" t="n">
-        <v>1598748.246009191</v>
+        <v>3932383.316069198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6832458.474799111</v>
+        <v>10088115.73273436</v>
       </c>
       <c r="C22" t="n">
-        <v>114781600.4036958</v>
+        <v>13317729.99857872</v>
       </c>
       <c r="D22" t="n">
-        <v>2373916176.758407</v>
+        <v>16411413.53669894</v>
       </c>
       <c r="E22" t="n">
-        <v>1285134334849.645</v>
+        <v>15236604.48513371</v>
       </c>
       <c r="F22" t="n">
-        <v>2558136414151.106</v>
+        <v>16029793.43097603</v>
       </c>
       <c r="G22" t="n">
-        <v>80973861003003.52</v>
+        <v>10899941.05082218</v>
       </c>
       <c r="H22" t="n">
-        <v>1531815895149677</v>
+        <v>15653410.4424271</v>
       </c>
       <c r="I22" t="n">
-        <v>2.53099417147438e+16</v>
+        <v>12735375.31557437</v>
       </c>
       <c r="J22" t="n">
-        <v>6.754670729536283e+17</v>
+        <v>15010380.21746107</v>
       </c>
       <c r="K22" t="n">
-        <v>8.979326770708592e+18</v>
+        <v>10906329.00562525</v>
       </c>
       <c r="L22" t="n">
-        <v>1.410028670912454e+20</v>
+        <v>14035426.35039446</v>
       </c>
       <c r="M22" t="n">
-        <v>2.813473657458213e+21</v>
+        <v>13457558.45776068</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.248208294754048</v>
+        <v>20095209.10392565</v>
       </c>
       <c r="C23" t="n">
-        <v>3.950353620364768</v>
+        <v>15697532.70548688</v>
       </c>
       <c r="D23" t="n">
-        <v>4.804863148732918</v>
+        <v>11725733.8099955</v>
       </c>
       <c r="E23" t="n">
-        <v>7.995008751952306</v>
+        <v>11706712.72676107</v>
       </c>
       <c r="F23" t="n">
-        <v>8.137744516169542</v>
+        <v>11697500.79580416</v>
       </c>
       <c r="G23" t="n">
-        <v>63.99381743322529</v>
+        <v>5746988.054811683</v>
       </c>
       <c r="H23" t="n">
-        <v>21.03163307726155</v>
+        <v>10312665.11868247</v>
       </c>
       <c r="I23" t="n">
-        <v>63.00488346418467</v>
+        <v>10382953.9406187</v>
       </c>
       <c r="J23" t="n">
-        <v>61.83035009485887</v>
+        <v>10391421.36995788</v>
       </c>
       <c r="K23" t="n">
-        <v>25.96687411281689</v>
+        <v>7318915.805009807</v>
       </c>
       <c r="L23" t="n">
-        <v>50.40091326872144</v>
+        <v>12639481.21460759</v>
       </c>
       <c r="M23" t="n">
-        <v>28.00457345824024</v>
+        <v>13160403.99132594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14586107.39210911</v>
+        <v>7682961.604081879</v>
       </c>
       <c r="C24" t="n">
-        <v>10778014.62424438</v>
+        <v>11716917.89111891</v>
       </c>
       <c r="D24" t="n">
-        <v>13124021.61610219</v>
+        <v>10245955.21914317</v>
       </c>
       <c r="E24" t="n">
-        <v>10828444.23845267</v>
+        <v>10212573.10642753</v>
       </c>
       <c r="F24" t="n">
-        <v>11656226.2242408</v>
+        <v>15788880.50167956</v>
       </c>
       <c r="G24" t="n">
-        <v>15992128.99424954</v>
+        <v>6994989.515654197</v>
       </c>
       <c r="H24" t="n">
-        <v>8441352.038560174</v>
+        <v>11941844.63741308</v>
       </c>
       <c r="I24" t="n">
-        <v>13218560.09971869</v>
+        <v>12129580.91611884</v>
       </c>
       <c r="J24" t="n">
-        <v>16286722.51482861</v>
+        <v>13593532.99147118</v>
       </c>
       <c r="K24" t="n">
-        <v>13436156.98582321</v>
+        <v>8721388.657149754</v>
       </c>
       <c r="L24" t="n">
-        <v>12875552.847809</v>
+        <v>11111090.72686485</v>
       </c>
       <c r="M24" t="n">
-        <v>12382242.7363358</v>
+        <v>12264777.97721995</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2751550.136886557</v>
+        <v>5171723.153542124</v>
       </c>
       <c r="C25" t="n">
-        <v>2936645.095321725</v>
+        <v>7491456.984971466</v>
       </c>
       <c r="D25" t="n">
-        <v>2670689.214800518</v>
+        <v>7325163.429252942</v>
       </c>
       <c r="E25" t="n">
-        <v>3501675.815979543</v>
+        <v>6776477.020058841</v>
       </c>
       <c r="F25" t="n">
-        <v>3603958.790715922</v>
+        <v>8264273.769008775</v>
       </c>
       <c r="G25" t="n">
-        <v>3470327.551737432</v>
+        <v>4983946.143328882</v>
       </c>
       <c r="H25" t="n">
-        <v>1829714.228663683</v>
+        <v>6070684.618990364</v>
       </c>
       <c r="I25" t="n">
-        <v>3116807.855389412</v>
+        <v>8933423.529768424</v>
       </c>
       <c r="J25" t="n">
-        <v>3568468.318422112</v>
+        <v>6837264.570192317</v>
       </c>
       <c r="K25" t="n">
-        <v>3533316.582514543</v>
+        <v>4672772.662161912</v>
       </c>
       <c r="L25" t="n">
-        <v>3066569.998240293</v>
+        <v>5499422.826615416</v>
       </c>
       <c r="M25" t="n">
-        <v>4227108.348481304</v>
+        <v>7498581.076418087</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>373658607.0867019</v>
+        <v>12697746.88705521</v>
       </c>
       <c r="C26" t="n">
-        <v>13471892397.24971</v>
+        <v>12850793.2783263</v>
       </c>
       <c r="D26" t="n">
-        <v>317475967636.4867</v>
+        <v>12937905.82789984</v>
       </c>
       <c r="E26" t="n">
-        <v>10967181666981.52</v>
+        <v>11487092.70714898</v>
       </c>
       <c r="F26" t="n">
-        <v>346605118379837.6</v>
+        <v>16224316.3756765</v>
       </c>
       <c r="G26" t="n">
-        <v>1.515897790466892e+16</v>
+        <v>12019811.6111267</v>
       </c>
       <c r="H26" t="n">
-        <v>2.353496131152996e+17</v>
+        <v>16778013.56425539</v>
       </c>
       <c r="I26" t="n">
-        <v>9.055358444287903e+18</v>
+        <v>17235096.38003654</v>
       </c>
       <c r="J26" t="n">
-        <v>4.595077195913439e+20</v>
+        <v>12213333.13704402</v>
       </c>
       <c r="K26" t="n">
-        <v>6.453726273478988e+23</v>
+        <v>13437772.7675269</v>
       </c>
       <c r="L26" t="n">
-        <v>9.236557540084053e+23</v>
+        <v>14796883.05349337</v>
       </c>
       <c r="M26" t="n">
-        <v>4.160039241839978e+25</v>
+        <v>17623396.52655647</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18965501.80039192</v>
+        <v>3956552.361985331</v>
       </c>
       <c r="C27" t="n">
-        <v>24411242.60802456</v>
+        <v>3307231.302954806</v>
       </c>
       <c r="D27" t="n">
-        <v>30587320.09306156</v>
+        <v>3536453.810932198</v>
       </c>
       <c r="E27" t="n">
-        <v>37692642.48540199</v>
+        <v>2869021.620396233</v>
       </c>
       <c r="F27" t="n">
-        <v>50804038.12850942</v>
+        <v>3936415.750089815</v>
       </c>
       <c r="G27" t="n">
-        <v>112489548.6810719</v>
+        <v>2281711.238153959</v>
       </c>
       <c r="H27" t="n">
-        <v>70812430.14630064</v>
+        <v>3207520.390238229</v>
       </c>
       <c r="I27" t="n">
-        <v>140798130.6853362</v>
+        <v>3232490.612001214</v>
       </c>
       <c r="J27" t="n">
-        <v>142378103.763334</v>
+        <v>2826334.37103759</v>
       </c>
       <c r="K27" t="n">
-        <v>200855012.3606372</v>
+        <v>2085043.588801916</v>
       </c>
       <c r="L27" t="n">
-        <v>175462501.5789416</v>
+        <v>2386893.829737284</v>
       </c>
       <c r="M27" t="n">
-        <v>233997477.8800959</v>
+        <v>4065882.788812752</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390866555.3394576</v>
+        <v>8321121.017213325</v>
       </c>
       <c r="C28" t="n">
-        <v>11659654040.65623</v>
+        <v>5785000.306361291</v>
       </c>
       <c r="D28" t="n">
-        <v>418003373158.7379</v>
+        <v>4973627.345503811</v>
       </c>
       <c r="E28" t="n">
-        <v>16222107779919.07</v>
+        <v>6639580.519990918</v>
       </c>
       <c r="F28" t="n">
-        <v>473755355820145</v>
+        <v>9413141.594693236</v>
       </c>
       <c r="G28" t="n">
-        <v>1.873983585716494e+16</v>
+        <v>4935765.873815851</v>
       </c>
       <c r="H28" t="n">
-        <v>3.172177582181133e+19</v>
+        <v>7045004.904748892</v>
       </c>
       <c r="I28" t="n">
-        <v>3.929443403419813e+19</v>
+        <v>5394664.987125813</v>
       </c>
       <c r="J28" t="n">
-        <v>1.695819851961176e+21</v>
+        <v>6398974.217955057</v>
       </c>
       <c r="K28" t="n">
-        <v>5.680493809910653e+22</v>
+        <v>3641010.259352978</v>
       </c>
       <c r="L28" t="n">
-        <v>1.454743770137019e+24</v>
+        <v>5272085.135339198</v>
       </c>
       <c r="M28" t="n">
-        <v>5.672721046585865e+25</v>
+        <v>7326398.798854857</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213296426.9854035</v>
+        <v>2560730.109978745</v>
       </c>
       <c r="C29" t="n">
-        <v>2205499000.181212</v>
+        <v>2773157.301442509</v>
       </c>
       <c r="D29" t="n">
-        <v>26589410492.32128</v>
+        <v>2767512.519736157</v>
       </c>
       <c r="E29" t="n">
-        <v>310839864005.0342</v>
+        <v>4139804.846250421</v>
       </c>
       <c r="F29" t="n">
-        <v>42599167106931.35</v>
+        <v>4656705.811622021</v>
       </c>
       <c r="G29" t="n">
-        <v>33092060902014.26</v>
+        <v>4062018.404778521</v>
       </c>
       <c r="H29" t="n">
-        <v>232982459129446</v>
+        <v>5064626.299261754</v>
       </c>
       <c r="I29" t="n">
-        <v>2321045198356226</v>
+        <v>6222785.500481612</v>
       </c>
       <c r="J29" t="n">
-        <v>2.363070697668192e+16</v>
+        <v>5101561.066955464</v>
       </c>
       <c r="K29" t="n">
-        <v>2.528509739503958e+17</v>
+        <v>5002604.374367297</v>
       </c>
       <c r="L29" t="n">
-        <v>1.559683261194246e+18</v>
+        <v>6428440.608863905</v>
       </c>
       <c r="M29" t="n">
-        <v>1.626478428070979e+19</v>
+        <v>6439769.504330912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55072997.5114499</v>
+        <v>44037578.41476194</v>
       </c>
       <c r="C30" t="n">
-        <v>45961100.54811308</v>
+        <v>39371842.60984068</v>
       </c>
       <c r="D30" t="n">
-        <v>52003842.7583623</v>
+        <v>51699528.77009222</v>
       </c>
       <c r="E30" t="n">
-        <v>55392318.87280372</v>
+        <v>88945454.47335899</v>
       </c>
       <c r="F30" t="n">
-        <v>54139457.44775347</v>
+        <v>250123965.5568559</v>
       </c>
       <c r="G30" t="n">
-        <v>44706373.82502181</v>
+        <v>279633873.2565187</v>
       </c>
       <c r="H30" t="n">
-        <v>44537563.30811468</v>
+        <v>332772812.4588588</v>
       </c>
       <c r="I30" t="n">
-        <v>51307838.06317969</v>
+        <v>410861895.975873</v>
       </c>
       <c r="J30" t="n">
-        <v>45487044.07688455</v>
+        <v>1255592451.603926</v>
       </c>
       <c r="K30" t="n">
-        <v>44128633.06603862</v>
+        <v>1490161060.319416</v>
       </c>
       <c r="L30" t="n">
-        <v>38859430.25651941</v>
+        <v>2018764757.504549</v>
       </c>
       <c r="M30" t="n">
-        <v>49429535.58038656</v>
+        <v>4587764993.155936</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50316404.55273049</v>
+        <v>497189.4461887571</v>
       </c>
       <c r="C31" t="n">
-        <v>52795328.56875458</v>
+        <v>695166.9637887626</v>
       </c>
       <c r="D31" t="n">
-        <v>52663173.61162058</v>
+        <v>783862.1206672882</v>
       </c>
       <c r="E31" t="n">
-        <v>56911490.44549635</v>
+        <v>844967.1270256693</v>
       </c>
       <c r="F31" t="n">
-        <v>49303474.43482552</v>
+        <v>841385.3567902837</v>
       </c>
       <c r="G31" t="n">
-        <v>46168421.92860374</v>
+        <v>409563.3020334397</v>
       </c>
       <c r="H31" t="n">
-        <v>44033673.77786744</v>
+        <v>758392.3524633431</v>
       </c>
       <c r="I31" t="n">
-        <v>49006144.55651972</v>
+        <v>759151.3847876701</v>
       </c>
       <c r="J31" t="n">
-        <v>45057491.80131824</v>
+        <v>729063.5538121212</v>
       </c>
       <c r="K31" t="n">
-        <v>47246613.78182953</v>
+        <v>541235.6479475286</v>
       </c>
       <c r="L31" t="n">
-        <v>40224731.00043645</v>
+        <v>484711.6531515878</v>
       </c>
       <c r="M31" t="n">
-        <v>49343270.48239496</v>
+        <v>505909.2501023188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2301496635.183443</v>
+        <v>26450546.64234788</v>
       </c>
       <c r="C32" t="n">
-        <v>30744217940.7155</v>
+        <v>426440623.7052875</v>
       </c>
       <c r="D32" t="n">
-        <v>397792588186.6868</v>
+        <v>122579014541.8887</v>
       </c>
       <c r="E32" t="n">
-        <v>5178319920670.735</v>
+        <v>79058685910.03488</v>
       </c>
       <c r="F32" t="n">
-        <v>69183408073795.73</v>
+        <v>1032403011901.711</v>
       </c>
       <c r="G32" t="n">
-        <v>947726184693187.8</v>
+        <v>9126684719001.561</v>
       </c>
       <c r="H32" t="n">
-        <v>1.429921964400045e+16</v>
+        <v>129196472053703.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.718351647129153e+22</v>
+        <v>1836271357443255</v>
       </c>
       <c r="J32" t="n">
-        <v>2.489821921041306e+18</v>
+        <v>1.67682632716301e+16</v>
       </c>
       <c r="K32" t="n">
-        <v>3.437518195059583e+19</v>
+        <v>1.713586746296152e+17</v>
       </c>
       <c r="L32" t="n">
-        <v>4.965480157204719e+20</v>
+        <v>2.454213231610364e+18</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1142997224464e+22</v>
+        <v>2.620192666991976e+19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65022009.22133952</v>
+        <v>32367770.9876678</v>
       </c>
       <c r="C33" t="n">
-        <v>3112917920.945508</v>
+        <v>386590934.0937583</v>
       </c>
       <c r="D33" t="n">
-        <v>55332535018.37023</v>
+        <v>5204531370.092761</v>
       </c>
       <c r="E33" t="n">
-        <v>1393166699385.312</v>
+        <v>40574760174.78436</v>
       </c>
       <c r="F33" t="n">
-        <v>54196900800118.06</v>
+        <v>597256944467.5021</v>
       </c>
       <c r="G33" t="n">
-        <v>1082030345880552</v>
+        <v>7889477179749.499</v>
       </c>
       <c r="H33" t="n">
-        <v>1.255795480784836e+18</v>
+        <v>114648042497968.7</v>
       </c>
       <c r="I33" t="n">
-        <v>1.289334006843276e+18</v>
+        <v>1614391690251240</v>
       </c>
       <c r="J33" t="n">
-        <v>3.183036286940556e+19</v>
+        <v>2.105361837383319e+16</v>
       </c>
       <c r="K33" t="n">
-        <v>1.171465675018456e+21</v>
+        <v>6.06255525821247e+18</v>
       </c>
       <c r="L33" t="n">
-        <v>1.890856119016907e+22</v>
+        <v>6.880739607104773e+18</v>
       </c>
       <c r="M33" t="n">
-        <v>4.233737488913586e+23</v>
+        <v>1.015029710176232e+20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11197026.14130189</v>
+        <v>3656829.828461542</v>
       </c>
       <c r="C34" t="n">
-        <v>9285579.140868865</v>
+        <v>2475647.94705147</v>
       </c>
       <c r="D34" t="n">
-        <v>17961952.84190851</v>
+        <v>3878361.845963985</v>
       </c>
       <c r="E34" t="n">
-        <v>16661094.40143576</v>
+        <v>2839977.205360984</v>
       </c>
       <c r="F34" t="n">
-        <v>20456765.9266894</v>
+        <v>3567070.667674555</v>
       </c>
       <c r="G34" t="n">
-        <v>22142256.61749482</v>
+        <v>3026987.119404855</v>
       </c>
       <c r="H34" t="n">
-        <v>13402198.58062537</v>
+        <v>3095178.646163632</v>
       </c>
       <c r="I34" t="n">
-        <v>17982117.26595598</v>
+        <v>3494188.597840905</v>
       </c>
       <c r="J34" t="n">
-        <v>24057120.30092623</v>
+        <v>3660062.256841633</v>
       </c>
       <c r="K34" t="n">
-        <v>24561889.69819908</v>
+        <v>3644492.478239645</v>
       </c>
       <c r="L34" t="n">
-        <v>21077103.05705721</v>
+        <v>4054602.380492609</v>
       </c>
       <c r="M34" t="n">
-        <v>23244925.91755169</v>
+        <v>4163441.728614311</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20956267.6960246</v>
+        <v>50442597.11587287</v>
       </c>
       <c r="C35" t="n">
-        <v>128050854.9335331</v>
+        <v>71230465.45171601</v>
       </c>
       <c r="D35" t="n">
-        <v>940970468.4663998</v>
+        <v>451500916.3741915</v>
       </c>
       <c r="E35" t="n">
-        <v>5425308377.156908</v>
+        <v>2004060820.268526</v>
       </c>
       <c r="F35" t="n">
-        <v>25357487805.87818</v>
+        <v>9956335717.566027</v>
       </c>
       <c r="G35" t="n">
-        <v>120794566670.925</v>
+        <v>45559928334.22342</v>
       </c>
       <c r="H35" t="n">
-        <v>567215049490.4005</v>
+        <v>218703497731.2547</v>
       </c>
       <c r="I35" t="n">
-        <v>4961089191703.384</v>
+        <v>1231373447339.099</v>
       </c>
       <c r="J35" t="n">
-        <v>19522791354555.89</v>
+        <v>5397991543801.246</v>
       </c>
       <c r="K35" t="n">
-        <v>111395586104618.6</v>
+        <v>27132169312543.23</v>
       </c>
       <c r="L35" t="n">
-        <v>4354792003168369</v>
+        <v>152918030175038</v>
       </c>
       <c r="M35" t="n">
-        <v>7295441476191499</v>
+        <v>990786722073025</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2125551.100389197</v>
+        <v>1225627.671842899</v>
       </c>
       <c r="C36" t="n">
-        <v>2830617.424017274</v>
+        <v>1287041.06067864</v>
       </c>
       <c r="D36" t="n">
-        <v>3063601.444173341</v>
+        <v>1550804.814732924</v>
       </c>
       <c r="E36" t="n">
-        <v>2507675.579785286</v>
+        <v>1083628.485025885</v>
       </c>
       <c r="F36" t="n">
-        <v>2353961.192575029</v>
+        <v>1231158.752664452</v>
       </c>
       <c r="G36" t="n">
-        <v>3107123.765742335</v>
+        <v>1196888.682445158</v>
       </c>
       <c r="H36" t="n">
-        <v>3575243.307086269</v>
+        <v>1475053.068878379</v>
       </c>
       <c r="I36" t="n">
-        <v>3660571.214508204</v>
+        <v>1576735.195972892</v>
       </c>
       <c r="J36" t="n">
-        <v>3688690.039558732</v>
+        <v>1370800.044878174</v>
       </c>
       <c r="K36" t="n">
-        <v>2452787.03497901</v>
+        <v>1448158.278860745</v>
       </c>
       <c r="L36" t="n">
-        <v>3390799.144469238</v>
+        <v>2004088.375594018</v>
       </c>
       <c r="M36" t="n">
-        <v>4114875.111103883</v>
+        <v>1911794.367861396</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6691891.264006849</v>
+        <v>5209782.016718497</v>
       </c>
       <c r="C37" t="n">
-        <v>7473544.074925771</v>
+        <v>4444615.451303398</v>
       </c>
       <c r="D37" t="n">
-        <v>4966035.633523047</v>
+        <v>5274533.86564162</v>
       </c>
       <c r="E37" t="n">
-        <v>7086716.82281335</v>
+        <v>4607170.875728313</v>
       </c>
       <c r="F37" t="n">
-        <v>5427214.049457897</v>
+        <v>3900445.818022214</v>
       </c>
       <c r="G37" t="n">
-        <v>6796783.654592693</v>
+        <v>3400868.099330735</v>
       </c>
       <c r="H37" t="n">
-        <v>3063306.473884667</v>
+        <v>3414689.717103233</v>
       </c>
       <c r="I37" t="n">
-        <v>4823694.755177645</v>
+        <v>5095088.939110707</v>
       </c>
       <c r="J37" t="n">
-        <v>6522229.289823743</v>
+        <v>3496306.764908928</v>
       </c>
       <c r="K37" t="n">
-        <v>4161929.765899282</v>
+        <v>3092742.369469749</v>
       </c>
       <c r="L37" t="n">
-        <v>3564126.658782449</v>
+        <v>4627780.270324993</v>
       </c>
       <c r="M37" t="n">
-        <v>5366880.467448398</v>
+        <v>5157584.463417625</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2262209.127816695</v>
+        <v>52043000.81128498</v>
       </c>
       <c r="C38" t="n">
-        <v>1838004.705243687</v>
+        <v>2538433.851559766</v>
       </c>
       <c r="D38" t="n">
-        <v>2488667.611936715</v>
+        <v>2453815.425688673</v>
       </c>
       <c r="E38" t="n">
-        <v>2767001.665997764</v>
+        <v>2033434.423251456</v>
       </c>
       <c r="F38" t="n">
-        <v>2899016.669255726</v>
+        <v>2511808.778984625</v>
       </c>
       <c r="G38" t="n">
-        <v>1956098.607962678</v>
+        <v>1790466.427134595</v>
       </c>
       <c r="H38" t="n">
-        <v>1679571.406297384</v>
+        <v>342235714.2687558</v>
       </c>
       <c r="I38" t="n">
-        <v>2674160.220981324</v>
+        <v>666409977.4205548</v>
       </c>
       <c r="J38" t="n">
-        <v>2629888.288991472</v>
+        <v>1243012672.99706</v>
       </c>
       <c r="K38" t="n">
-        <v>1814753.512177884</v>
+        <v>135303935.9505541</v>
       </c>
       <c r="L38" t="n">
-        <v>2074715.00986775</v>
+        <v>2485261.601318746</v>
       </c>
       <c r="M38" t="n">
-        <v>2951777.175119709</v>
+        <v>2582361.33763189</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3329501.724482419</v>
+        <v>106888187.1094537</v>
       </c>
       <c r="C39" t="n">
-        <v>3332688.667666983</v>
+        <v>2151404815.112073</v>
       </c>
       <c r="D39" t="n">
-        <v>3641263.385339526</v>
+        <v>51144946970.42386</v>
       </c>
       <c r="E39" t="n">
-        <v>5443996.167647858</v>
+        <v>777554054107.7928</v>
       </c>
       <c r="F39" t="n">
-        <v>4882843.462992199</v>
+        <v>15621308939208.64</v>
       </c>
       <c r="G39" t="n">
-        <v>5330569.985287203</v>
+        <v>283244214166539.8</v>
       </c>
       <c r="H39" t="n">
-        <v>4003360.805345335</v>
+        <v>4691779704818317</v>
       </c>
       <c r="I39" t="n">
-        <v>3666851.746964366</v>
+        <v>1.656081123923065e+18</v>
       </c>
       <c r="J39" t="n">
-        <v>3623835.1156342</v>
+        <v>2.903732109423423e+18</v>
       </c>
       <c r="K39" t="n">
-        <v>3887670.977792145</v>
+        <v>6.94368495455036e+19</v>
       </c>
       <c r="L39" t="n">
-        <v>4419831.336923169</v>
+        <v>1.515997303071191e+21</v>
       </c>
       <c r="M39" t="n">
-        <v>4807196.417902177</v>
+        <v>2.927280800382864e+22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9807389.709752951</v>
+        <v>5897160.341244482</v>
       </c>
       <c r="C40" t="n">
-        <v>9459927.579120876</v>
+        <v>5522467.046430641</v>
       </c>
       <c r="D40" t="n">
-        <v>12436191.52691008</v>
+        <v>6103879.440888027</v>
       </c>
       <c r="E40" t="n">
-        <v>15260881.04553612</v>
+        <v>5472787.327409457</v>
       </c>
       <c r="F40" t="n">
-        <v>14109099.48154469</v>
+        <v>6055749.530301099</v>
       </c>
       <c r="G40" t="n">
-        <v>14781393.59898445</v>
+        <v>4676389.50431123</v>
       </c>
       <c r="H40" t="n">
-        <v>9345852.055178706</v>
+        <v>5368630.864885884</v>
       </c>
       <c r="I40" t="n">
-        <v>14313638.97326425</v>
+        <v>5618681.780387128</v>
       </c>
       <c r="J40" t="n">
-        <v>11596538.54144116</v>
+        <v>6491402.346493968</v>
       </c>
       <c r="K40" t="n">
-        <v>13610799.40331162</v>
+        <v>5928172.894485395</v>
       </c>
       <c r="L40" t="n">
-        <v>9848025.439389357</v>
+        <v>6771852.265931984</v>
       </c>
       <c r="M40" t="n">
-        <v>12619909.34170559</v>
+        <v>6281982.0356457</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11551965.34252655</v>
+        <v>3286599.216475962</v>
       </c>
       <c r="C41" t="n">
-        <v>24078861.07793353</v>
+        <v>3630152.932307189</v>
       </c>
       <c r="D41" t="n">
-        <v>19194539.55386541</v>
+        <v>3832788.339270407</v>
       </c>
       <c r="E41" t="n">
-        <v>14631545.15314524</v>
+        <v>2961569.040827438</v>
       </c>
       <c r="F41" t="n">
-        <v>14907249.61265187</v>
+        <v>3879229.982862811</v>
       </c>
       <c r="G41" t="n">
-        <v>15200641.52362606</v>
+        <v>2849944.488824408</v>
       </c>
       <c r="H41" t="n">
-        <v>11722948.41528608</v>
+        <v>2904003.166976753</v>
       </c>
       <c r="I41" t="n">
-        <v>13956891.41267296</v>
+        <v>3304828.447884593</v>
       </c>
       <c r="J41" t="n">
-        <v>14339290.21291013</v>
+        <v>3381109.544493315</v>
       </c>
       <c r="K41" t="n">
-        <v>14644655.71686219</v>
+        <v>3053781.35847733</v>
       </c>
       <c r="L41" t="n">
-        <v>10525792.11114716</v>
+        <v>3628426.99868151</v>
       </c>
       <c r="M41" t="n">
-        <v>18550761.86057005</v>
+        <v>4163944.672406217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10031081.40742536</v>
+        <v>4672196.485889562</v>
       </c>
       <c r="C42" t="n">
-        <v>8072084.338542502</v>
+        <v>5362853.910796953</v>
       </c>
       <c r="D42" t="n">
-        <v>12335444.44453571</v>
+        <v>5216532.399913698</v>
       </c>
       <c r="E42" t="n">
-        <v>10808508.41796167</v>
+        <v>4871940.240563508</v>
       </c>
       <c r="F42" t="n">
-        <v>10795113.91195551</v>
+        <v>4700515.588911565</v>
       </c>
       <c r="G42" t="n">
-        <v>16723160.71981436</v>
+        <v>3199570.969453679</v>
       </c>
       <c r="H42" t="n">
-        <v>7330254.587762206</v>
+        <v>3869566.215891161</v>
       </c>
       <c r="I42" t="n">
-        <v>12699579.48818349</v>
+        <v>4522505.311587574</v>
       </c>
       <c r="J42" t="n">
-        <v>12925397.4088119</v>
+        <v>4273360.412472029</v>
       </c>
       <c r="K42" t="n">
-        <v>14514506.75099318</v>
+        <v>4101951.329817167</v>
       </c>
       <c r="L42" t="n">
-        <v>9331026.851973781</v>
+        <v>4543180.209106281</v>
       </c>
       <c r="M42" t="n">
-        <v>11911590.80805407</v>
+        <v>5178258.956151896</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6779836.048630757</v>
+        <v>3382278.599334564</v>
       </c>
       <c r="C43" t="n">
-        <v>6087924.177764026</v>
+        <v>3494388.113280874</v>
       </c>
       <c r="D43" t="n">
-        <v>8933660.388369918</v>
+        <v>3556332.39585028</v>
       </c>
       <c r="E43" t="n">
-        <v>8849335.701218624</v>
+        <v>3777726.273383267</v>
       </c>
       <c r="F43" t="n">
-        <v>8293266.773876105</v>
+        <v>4108924.752008975</v>
       </c>
       <c r="G43" t="n">
-        <v>10245980.84374866</v>
+        <v>2802212.161484054</v>
       </c>
       <c r="H43" t="n">
-        <v>6739253.007635479</v>
+        <v>2857009.708052694</v>
       </c>
       <c r="I43" t="n">
-        <v>7724132.81881471</v>
+        <v>4017354.493401347</v>
       </c>
       <c r="J43" t="n">
-        <v>11514694.20395705</v>
+        <v>3533646.181766135</v>
       </c>
       <c r="K43" t="n">
-        <v>8927813.474615604</v>
+        <v>3761113.810496734</v>
       </c>
       <c r="L43" t="n">
-        <v>6181043.503439876</v>
+        <v>4370664.472609526</v>
       </c>
       <c r="M43" t="n">
-        <v>7369336.828833587</v>
+        <v>4449897.322989502</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15442538.69920076</v>
+        <v>5227022.04425252</v>
       </c>
       <c r="C44" t="n">
-        <v>20747473.90864887</v>
+        <v>6652823.092297385</v>
       </c>
       <c r="D44" t="n">
-        <v>20719131.53281776</v>
+        <v>5875983.301621065</v>
       </c>
       <c r="E44" t="n">
-        <v>20582221.2853584</v>
+        <v>5759432.063097001</v>
       </c>
       <c r="F44" t="n">
-        <v>18031196.68626647</v>
+        <v>6903850.547838988</v>
       </c>
       <c r="G44" t="n">
-        <v>25128531.85619365</v>
+        <v>5068468.394825364</v>
       </c>
       <c r="H44" t="n">
-        <v>19582657.80225928</v>
+        <v>5483513.112175525</v>
       </c>
       <c r="I44" t="n">
-        <v>25300228.25703675</v>
+        <v>6480984.763814448</v>
       </c>
       <c r="J44" t="n">
-        <v>25643281.93920566</v>
+        <v>5476373.055256633</v>
       </c>
       <c r="K44" t="n">
-        <v>17930012.05779898</v>
+        <v>5011939.4292409</v>
       </c>
       <c r="L44" t="n">
-        <v>19465234.11799064</v>
+        <v>6175095.569655672</v>
       </c>
       <c r="M44" t="n">
-        <v>21149498.37754145</v>
+        <v>7338474.920892772</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6682764.434434015</v>
+        <v>3403844.651632558</v>
       </c>
       <c r="C45" t="n">
-        <v>2265905502.374384</v>
+        <v>4209601.007460653</v>
       </c>
       <c r="D45" t="n">
-        <v>6895941.433933648</v>
+        <v>3356277.514388428</v>
       </c>
       <c r="E45" t="n">
-        <v>9126481.957607552</v>
+        <v>3478834.438398698</v>
       </c>
       <c r="F45" t="n">
-        <v>9165229.257022357</v>
+        <v>3773985.678675279</v>
       </c>
       <c r="G45" t="n">
-        <v>1915045752.681092</v>
+        <v>2970150.02969229</v>
       </c>
       <c r="H45" t="n">
-        <v>13875973.85635031</v>
+        <v>3438408.678449166</v>
       </c>
       <c r="I45" t="n">
-        <v>4159910119.159804</v>
+        <v>3872553.142279799</v>
       </c>
       <c r="J45" t="n">
-        <v>29076694207.60754</v>
+        <v>3765121.701975306</v>
       </c>
       <c r="K45" t="n">
-        <v>26308861.73958758</v>
+        <v>3329446.527384257</v>
       </c>
       <c r="L45" t="n">
-        <v>142466237646.5583</v>
+        <v>3704898.756812958</v>
       </c>
       <c r="M45" t="n">
-        <v>34002086.55721376</v>
+        <v>4381767.308101989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14853112.47973186</v>
+        <v>1203483.825789329</v>
       </c>
       <c r="C46" t="n">
-        <v>9486100.964968512</v>
+        <v>1336547.960140488</v>
       </c>
       <c r="D46" t="n">
-        <v>6724818.765307827</v>
+        <v>60172181.15832012</v>
       </c>
       <c r="E46" t="n">
-        <v>5895557.9568734</v>
+        <v>249388823.2528738</v>
       </c>
       <c r="F46" t="n">
-        <v>8025407.561643205</v>
+        <v>154525331.8601186</v>
       </c>
       <c r="G46" t="n">
-        <v>11602055.73078401</v>
+        <v>1000242.064780677</v>
       </c>
       <c r="H46" t="n">
-        <v>4819668.427321879</v>
+        <v>1153791.217658808</v>
       </c>
       <c r="I46" t="n">
-        <v>9028573.707859134</v>
+        <v>330375257.6288358</v>
       </c>
       <c r="J46" t="n">
-        <v>7049772.099158767</v>
+        <v>105731734.3117102</v>
       </c>
       <c r="K46" t="n">
-        <v>8527064.065374073</v>
+        <v>1198037.846923152</v>
       </c>
       <c r="L46" t="n">
-        <v>4947478.373265135</v>
+        <v>1135471.781681823</v>
       </c>
       <c r="M46" t="n">
-        <v>7305082.167954874</v>
+        <v>1161943.849649958</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2221008.184338016</v>
+        <v>100906813.4892882</v>
       </c>
       <c r="C47" t="n">
-        <v>2359609.83205483</v>
+        <v>4849164870.330788</v>
       </c>
       <c r="D47" t="n">
-        <v>2557924.619386469</v>
+        <v>165426430264.3178</v>
       </c>
       <c r="E47" t="n">
-        <v>2555257.724020843</v>
+        <v>6628993769080.737</v>
       </c>
       <c r="F47" t="n">
-        <v>3818038.956825378</v>
+        <v>323990971143074.2</v>
       </c>
       <c r="G47" t="n">
-        <v>4308166.40340552</v>
+        <v>1.710853632590353e+16</v>
       </c>
       <c r="H47" t="n">
-        <v>3811464.851618437</v>
+        <v>8.942122479502593e+17</v>
       </c>
       <c r="I47" t="n">
-        <v>4695001.349727804</v>
+        <v>4.386091097297854e+19</v>
       </c>
       <c r="J47" t="n">
-        <v>5774343.385581742</v>
+        <v>1.642799964945737e+23</v>
       </c>
       <c r="K47" t="n">
-        <v>4738647.642044918</v>
+        <v>1.930285109765261e+23</v>
       </c>
       <c r="L47" t="n">
-        <v>4651361.513358507</v>
+        <v>8.278831817594678e+24</v>
       </c>
       <c r="M47" t="n">
-        <v>5983203.449674982</v>
+        <v>4.337798503954306e+26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12857694.18203539</v>
+        <v>5350080.683178377</v>
       </c>
       <c r="C48" t="n">
-        <v>66736281.18982568</v>
+        <v>6364581.476945818</v>
       </c>
       <c r="D48" t="n">
-        <v>59666129.64521235</v>
+        <v>6704795.141801652</v>
       </c>
       <c r="E48" t="n">
-        <v>78354780.0987401</v>
+        <v>6350693.456496079</v>
       </c>
       <c r="F48" t="n">
-        <v>134815551.9975971</v>
+        <v>7078695.741686046</v>
       </c>
       <c r="G48" t="n">
-        <v>379148102.8013892</v>
+        <v>6190596.419274464</v>
       </c>
       <c r="H48" t="n">
-        <v>426781647.8042837</v>
+        <v>7120633.027434833</v>
       </c>
       <c r="I48" t="n">
-        <v>504516460.6171476</v>
+        <v>7047230.925607458</v>
       </c>
       <c r="J48" t="n">
-        <v>622960036.8161887</v>
+        <v>6794609.279034219</v>
       </c>
       <c r="K48" t="n">
-        <v>1903925173.711346</v>
+        <v>8320533.873910106</v>
       </c>
       <c r="L48" t="n">
-        <v>2259806180.362473</v>
+        <v>8228646.791106722</v>
       </c>
       <c r="M48" t="n">
-        <v>3061971165.976457</v>
+        <v>7833834.821259571</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>594644.8921233322</v>
+        <v>2380427.068550551</v>
       </c>
       <c r="C49" t="n">
-        <v>553037.0512138219</v>
+        <v>19543454.94159126</v>
       </c>
       <c r="D49" t="n">
-        <v>780952.4751854981</v>
+        <v>65721382.88895561</v>
       </c>
       <c r="E49" t="n">
-        <v>889363.8610589948</v>
+        <v>483935090.3135938</v>
       </c>
       <c r="F49" t="n">
-        <v>968236.0796403314</v>
+        <v>3499429865.631687</v>
       </c>
       <c r="G49" t="n">
-        <v>973732.3359209846</v>
+        <v>13708402466.08953</v>
       </c>
       <c r="H49" t="n">
-        <v>464353.8984753944</v>
+        <v>1719599872554.351</v>
       </c>
       <c r="I49" t="n">
-        <v>895242.3849930469</v>
+        <v>2005906639710.218</v>
       </c>
       <c r="J49" t="n">
-        <v>905056.7250200646</v>
+        <v>13140921353230.71</v>
       </c>
       <c r="K49" t="n">
-        <v>877843.7592840574</v>
+        <v>56164248064901.83</v>
       </c>
       <c r="L49" t="n">
-        <v>658170.1314011998</v>
+        <v>293468719078556.4</v>
       </c>
       <c r="M49" t="n">
-        <v>595271.6506360171</v>
+        <v>2211642081030265</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>18450547.61253451</v>
+        <v>45565750.26430663</v>
       </c>
       <c r="C50" t="n">
-        <v>221242345.8354995</v>
+        <v>689048250.7824118</v>
       </c>
       <c r="D50" t="n">
-        <v>3655716172.809289</v>
+        <v>6030846698.55241</v>
       </c>
       <c r="E50" t="n">
-        <v>995166338487.308</v>
+        <v>107055814489.9118</v>
       </c>
       <c r="F50" t="n">
-        <v>681566587790.1198</v>
+        <v>1947548381732.753</v>
       </c>
       <c r="G50" t="n">
-        <v>8925452601214.691</v>
+        <v>20543280879669.36</v>
       </c>
       <c r="H50" t="n">
-        <v>86891406569956.62</v>
+        <v>350732652943379.8</v>
       </c>
       <c r="I50" t="n">
-        <v>1123261409071197</v>
+        <v>6177786344934891</v>
       </c>
       <c r="J50" t="n">
-        <v>1.600964080021348e+16</v>
+        <v>2.602692037912075e+18</v>
       </c>
       <c r="K50" t="n">
-        <v>1.466060298092237e+17</v>
+        <v>3.199968040001752e+18</v>
       </c>
       <c r="L50" t="n">
-        <v>1.50242071980219e+18</v>
+        <v>4.401551570733298e+19</v>
       </c>
       <c r="M50" t="n">
-        <v>2.158048308705274e+19</v>
+        <v>6.010315335292208e+20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>260406814465.5247</v>
+        <v>100383360.5643984</v>
       </c>
       <c r="C51" t="n">
-        <v>3154063294002.629</v>
+        <v>2929083343.39977</v>
       </c>
       <c r="D51" t="n">
-        <v>35033213187447.76</v>
+        <v>59101323261.69125</v>
       </c>
       <c r="E51" t="n">
-        <v>434400436369724.6</v>
+        <v>1584724764954.346</v>
       </c>
       <c r="F51" t="n">
-        <v>3118977355078745</v>
+        <v>43309904206923.42</v>
       </c>
       <c r="G51" t="n">
-        <v>4.228871803301024e+16</v>
+        <v>982021642399563.2</v>
       </c>
       <c r="H51" t="n">
-        <v>4.59402209656866e+17</v>
+        <v>3.563844218966731e+16</v>
       </c>
       <c r="I51" t="n">
-        <v>6.886014678172291e+18</v>
+        <v>9.028121275859905e+17</v>
       </c>
       <c r="J51" t="n">
-        <v>8.930769186767815e+19</v>
+        <v>2.041570441943895e+21</v>
       </c>
       <c r="K51" t="n">
-        <v>1.072705153365037e+21</v>
+        <v>1.294196477449817e+21</v>
       </c>
       <c r="L51" t="n">
-        <v>2.13624027079375e+23</v>
+        <v>3.887233289656249e+22</v>
       </c>
       <c r="M51" t="n">
-        <v>2.974297631665296e+23</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3273885.367071067</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4443625.016974366</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3084551.959416462</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4980570.221795453</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3720116.849310185</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4790854.511837181</v>
-      </c>
-      <c r="H52" t="n">
-        <v>4090723.48130139</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4370596.191605289</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5059138.683435525</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5433591.574604351</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5547668.639611742</v>
-      </c>
-      <c r="M52" t="n">
-        <v>6328276.686105654</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>7276013.961420552</v>
-      </c>
-      <c r="C53" t="n">
-        <v>204092100.0818874</v>
-      </c>
-      <c r="D53" t="n">
-        <v>288225506.6640283</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1827114058.31041</v>
-      </c>
-      <c r="F53" t="n">
-        <v>8110699289.167954</v>
-      </c>
-      <c r="G53" t="n">
-        <v>40298354544.62302</v>
-      </c>
-      <c r="H53" t="n">
-        <v>197771275475.4042</v>
-      </c>
-      <c r="I53" t="n">
-        <v>885386617100.7649</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4985385835031.213</v>
-      </c>
-      <c r="K53" t="n">
-        <v>21856544318301.46</v>
-      </c>
-      <c r="L53" t="n">
-        <v>109868752907099.5</v>
-      </c>
-      <c r="M53" t="n">
-        <v>619336964145313.1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1874645.459378862</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1387276.23666849</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1462837.274932418</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1769929.682314307</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1241865.467515109</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1416784.729525946</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1451427.831263041</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1711549.294614285</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1837109.331958675</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1603790.518805319</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1701310.548173714</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2364275.346454351</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>5306990.794595888</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5453978.282062432</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4666078.711850741</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5552975.349488392</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4864072.129702445</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4129558.825685851</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3141848.802845602</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3635673.973443187</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5440130.830820477</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3743599.454588576</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3320837.574258809</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4983339.171316888</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4061250.868670192</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3872717.007537646</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4663797.890480356</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4519057.952173365</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3753748.500895842</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4647777.784047546</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3500504.840339856</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4052310.028047434</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3639391.600837979</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3945487.217476632</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4773451.356676583</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4660775.676981622</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2.710824227263926e+195</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1.014310534427448e+199</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2.74319764268206e+204</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1.915934239801535e+206</v>
-      </c>
-      <c r="F57" t="n">
-        <v>8.109390300091324e+212</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2.87252130938994e+216</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.263742496747569e+221</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4.301469250648435e+224</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.544878870637992e+228</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7.434270155303873e+230</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.179412386227544e+231</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.379331540360727e+235</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5131308.126453015</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5860263.872340729</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5486104.169877923</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6061688.633434311</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5433167.157002759</v>
-      </c>
-      <c r="G58" t="n">
-        <v>6009926.007359205</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4651820.379930177</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5324491.721267612</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5570649.814535652</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6433784.996003181</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5873616.691763178</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6707366.32847211</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>465791170.8672373</v>
-      </c>
-      <c r="C59" t="n">
-        <v>115493140.358813</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2042357.088083578</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2161921.471649791</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1674832.936425254</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2199452.643192443</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1463831346.063778</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1655106.510137121</v>
-      </c>
-      <c r="J59" t="n">
-        <v>19586883.10261193</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1058326343.645202</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1754344.370432618</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2089600.860436835</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4377440.481308228</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4714896.403979493</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5414077.106112379</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5268511.162205395</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4922503.522983081</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4751245.67289976</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3335469.780514455</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3914534.569403245</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4576928.270687918</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4326555.354621257</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4154711.750824711</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4603470.298066082</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3434938.759521287</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3545227.168142301</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3648514.861573393</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3698771.101826922</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3913794.145608532</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4240404.358418131</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3301339.906172778</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2925655.839770185</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4097872.533481511</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3590473.437442341</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3806749.324602971</v>
-      </c>
-      <c r="M61" t="n">
-        <v>4406608.491363954</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>7097274.087369537</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5831786.301660361</v>
-      </c>
-      <c r="D62" t="n">
-        <v>7454507.826899747</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6612404.259499868</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6509150.43915659</v>
-      </c>
-      <c r="G62" t="n">
-        <v>7836133.658002783</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5150406.533007364</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6277583.703232341</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7451500.088826185</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6323584.025127758</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5812234.930112177</v>
-      </c>
-      <c r="M62" t="n">
-        <v>7192077.638874828</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3792001.638867204</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3734486.282998701</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4639374.436892281</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3715650.384156109</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3868711.778691687</v>
-      </c>
-      <c r="G63" t="n">
-        <v>4215892.609773749</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3183825.720933811</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3875775.555464736</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4384870.532008416</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4282491.841706206</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3804055.33367795</v>
-      </c>
-      <c r="M63" t="n">
-        <v>4252219.707362842</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2233501.697694715</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2271237.697039104</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2535061.79755673</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2598674.769349491</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1875662.386428319</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2218730.666957499</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1857899.50399354</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2243693.301327039</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2642302.813103905</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2093818.522798735</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2364730.097157563</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2252593.747472361</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>115550952.1635437</v>
-      </c>
-      <c r="C65" t="n">
-        <v>5212388337.600289</v>
-      </c>
-      <c r="D65" t="n">
-        <v>250504380139.612</v>
-      </c>
-      <c r="E65" t="n">
-        <v>8546662867244.902</v>
-      </c>
-      <c r="F65" t="n">
-        <v>342517411182286.2</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.67421534215709e+16</v>
-      </c>
-      <c r="H65" t="n">
-        <v>9.421606381395451e+17</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4.621827879316841e+19</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.267181106133134e+21</v>
-      </c>
-      <c r="K65" t="n">
-        <v>8.492503703819273e+24</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9.979682197094104e+24</v>
-      </c>
-      <c r="M65" t="n">
-        <v>4.281051326589173e+26</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4960457.351666164</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5255804.094345092</v>
-      </c>
-      <c r="D66" t="n">
-        <v>6235055.036659803</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6550059.536072894</v>
-      </c>
-      <c r="F66" t="n">
-        <v>6186873.356815429</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6876915.94524879</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5026479.342221575</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6879110.261597728</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6789248.172371577</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6527680.567492374</v>
-      </c>
-      <c r="L66" t="n">
-        <v>7971420.199710548</v>
-      </c>
-      <c r="M66" t="n">
-        <v>7861580.993483779</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>6529917.959301803</v>
-      </c>
-      <c r="C67" t="n">
-        <v>30654352.80143252</v>
-      </c>
-      <c r="D67" t="n">
-        <v>323053696.2331631</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1368362634.34334</v>
-      </c>
-      <c r="F67" t="n">
-        <v>12691228716.63139</v>
-      </c>
-      <c r="G67" t="n">
-        <v>115593897819.2324</v>
-      </c>
-      <c r="H67" t="n">
-        <v>737225450747.0131</v>
-      </c>
-      <c r="I67" t="n">
-        <v>112342305315795.1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>132405535370019.8</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1092562423406023</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5881678685878830</v>
-      </c>
-      <c r="M67" t="n">
-        <v>3.871317057183924e+16</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>45294517.51384129</v>
-      </c>
-      <c r="C68" t="n">
-        <v>726676105.1006039</v>
-      </c>
-      <c r="D68" t="n">
-        <v>11111704422.47804</v>
-      </c>
-      <c r="E68" t="n">
-        <v>97285780652.15367</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1727513753737.555</v>
-      </c>
-      <c r="G68" t="n">
-        <v>31436856542340.05</v>
-      </c>
-      <c r="H68" t="n">
-        <v>366754528736768.4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5665237963436380</v>
-      </c>
-      <c r="J68" t="n">
-        <v>9.981655478928718e+16</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4.185395556843318e+19</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5.173622914265316e+19</v>
-      </c>
-      <c r="M68" t="n">
-        <v>7.119234704117258e+20</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>92912941.31124553</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2791161822.53042</v>
-      </c>
-      <c r="D69" t="n">
-        <v>82379266273.41396</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1662795398123.254</v>
-      </c>
-      <c r="F69" t="n">
-        <v>44601670828283.17</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1219381788349789</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3.106175152890242e+16</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.004138656165823e+18</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.544575648229379e+19</v>
-      </c>
-      <c r="K69" t="n">
-        <v>5.690641331354231e+22</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.650305547695293e+22</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.096899950156595e+24</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>172185474.2443494</v>
-      </c>
-      <c r="C70" t="n">
-        <v>872626542.3031508</v>
-      </c>
-      <c r="D70" t="n">
-        <v>61948214281.63119</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2130350037461.548</v>
-      </c>
-      <c r="F70" t="n">
-        <v>57321652611182.23</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1744867080190132</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3.192149860589999e+16</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.621579547054945e+19</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.608426248652077e+19</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7.144645040933854e+20</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1.423309098778954e+22</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3.099576584632451e+23</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>20970285.86569307</v>
-      </c>
-      <c r="C71" t="n">
-        <v>23211728.07079582</v>
-      </c>
-      <c r="D71" t="n">
-        <v>26110910.36114639</v>
-      </c>
-      <c r="E71" t="n">
-        <v>26210631.56486795</v>
-      </c>
-      <c r="F71" t="n">
-        <v>31369167.58092871</v>
-      </c>
-      <c r="G71" t="n">
-        <v>57807340.36256815</v>
-      </c>
-      <c r="H71" t="n">
-        <v>6355572.89161921</v>
-      </c>
-      <c r="I71" t="n">
-        <v>36549145.06155911</v>
-      </c>
-      <c r="J71" t="n">
-        <v>39560260.47107232</v>
-      </c>
-      <c r="K71" t="n">
-        <v>35419160.16660477</v>
-      </c>
-      <c r="L71" t="n">
-        <v>34405386.12577504</v>
-      </c>
-      <c r="M71" t="n">
-        <v>39358758.1432438</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3435702.027171078</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2854598.401658274</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4071176.873372658</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2341112.115325193</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4564473.959610983</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2941676.065914775</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2695589.291418783</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5585173.565046906</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6414684.739681176</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4969251.963511896</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5623739.751500377</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3880336.118538261</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>133791791.7039215</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1812827741.781013</v>
-      </c>
-      <c r="D73" t="n">
-        <v>23759043833.53393</v>
-      </c>
-      <c r="E73" t="n">
-        <v>695122824910.5477</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4373255593458.184</v>
-      </c>
-      <c r="G73" t="n">
-        <v>120151349765190.9</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4.046225396541283e+16</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.091248157647278e+16</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.613391847191249e+18</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.733553164575987e+19</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1.769338694444123e+20</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2.755792654861027e+21</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19990662.02142452</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16256986.41334783</v>
-      </c>
-      <c r="D74" t="n">
-        <v>19859380.21334536</v>
-      </c>
-      <c r="E74" t="n">
-        <v>19826055.18864828</v>
-      </c>
-      <c r="F74" t="n">
-        <v>22066273.12360497</v>
-      </c>
-      <c r="G74" t="n">
-        <v>29742086.77004605</v>
-      </c>
-      <c r="H74" t="n">
-        <v>14892381.98881882</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21806962.31619546</v>
-      </c>
-      <c r="J74" t="n">
-        <v>26683788.57604076</v>
-      </c>
-      <c r="K74" t="n">
-        <v>24182103.63902327</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21375540.59275652</v>
-      </c>
-      <c r="M74" t="n">
-        <v>23445005.45102926</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>21497514.1045533</v>
-      </c>
-      <c r="C75" t="n">
-        <v>22801881.63585332</v>
-      </c>
-      <c r="D75" t="n">
-        <v>19656615.14725721</v>
-      </c>
-      <c r="E75" t="n">
-        <v>20216013.32105331</v>
-      </c>
-      <c r="F75" t="n">
-        <v>20689739.17156189</v>
-      </c>
-      <c r="G75" t="n">
-        <v>34247192.17378608</v>
-      </c>
-      <c r="H75" t="n">
-        <v>17449227.01230199</v>
-      </c>
-      <c r="I75" t="n">
-        <v>25350017.60186337</v>
-      </c>
-      <c r="J75" t="n">
-        <v>26555818.87847146</v>
-      </c>
-      <c r="K75" t="n">
-        <v>32449668.27436622</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34226598.5676064</v>
-      </c>
-      <c r="M75" t="n">
-        <v>42359137.32663625</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>390866555.3394576</v>
-      </c>
-      <c r="C76" t="n">
-        <v>11659654040.65623</v>
-      </c>
-      <c r="D76" t="n">
-        <v>418003373158.7379</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16222107779919.07</v>
-      </c>
-      <c r="F76" t="n">
-        <v>473755355820145</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.873983585716494e+16</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3.172177582181133e+19</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.929443403419813e+19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.695819851961176e+21</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5.680493809910653e+22</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1.454743770137019e+24</v>
-      </c>
-      <c r="M76" t="n">
-        <v>5.672721046585865e+25</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>343762429.8060763</v>
-      </c>
-      <c r="C77" t="n">
-        <v>5530005176.288768</v>
-      </c>
-      <c r="D77" t="n">
-        <v>104255879886.6776</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1906017218454.972</v>
-      </c>
-      <c r="F77" t="n">
-        <v>664298539744879.8</v>
-      </c>
-      <c r="G77" t="n">
-        <v>818941932386317.1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5466746356310363</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8.514881835923691e+16</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.353663752932686e+18</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2.265900714376072e+19</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.185093194902309e+20</v>
-      </c>
-      <c r="M77" t="n">
-        <v>3.560323191439483e+21</v>
+        <v>1.062182761789011e+24</v>
       </c>
     </row>
   </sheetData>
